--- a/data/trans_camb/P17A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P17A_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-8,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>-8,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>-8,14</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 20,68</t>
+          <t>-16,78; -3,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 21,58</t>
+          <t>-13,48; -2,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 15,77</t>
+          <t>-12,6; -4,45</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>-83,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>-70,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>-76,7%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 367,15</t>
+          <t>-100,0; -28,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,88; 240,16</t>
+          <t>-89,16; -15,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 176,2</t>
+          <t>-91,52; -48,89</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-6,29</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 2,69</t>
+          <t>-11,34; -3,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 15,75</t>
+          <t>-10,66; -2,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,96</t>
+          <t>-9,38; -3,82</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-71,08%</t>
+          <t>-93,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>-74,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,8%</t>
+          <t>-83,69%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 127,3</t>
+          <t>-100,0; -38,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 268,32</t>
+          <t>-94,62; -28,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,97; 85,6</t>
+          <t>-95,25; -58,63</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-5,88</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 10,27</t>
+          <t>-8,25; -1,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 10,86</t>
+          <t>-10,2; -3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,37</t>
+          <t>-8,48; -3,74</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>-75,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>-77,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>-76,75%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-72,34; 213,72</t>
+          <t>-94,32; -26,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,96; 150,88</t>
+          <t>-91,45; -49,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 107,99</t>
+          <t>-89,19; -56,31</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-9,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-8,26</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 1,83</t>
+          <t>-9,8; -3,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 8,23</t>
+          <t>-14,34; -6,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 2,62</t>
+          <t>-11,03; -6,02</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-73,82%</t>
+          <t>-94,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,21%</t>
+          <t>-83,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-37,74%</t>
+          <t>-87,59%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 107,87</t>
+          <t>-100,0; -69,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 88,31</t>
+          <t>-94,32; -60,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,44; 32,86</t>
+          <t>-94,88; -74,39</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-5,61</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 10,16</t>
+          <t>-6,08; -0,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 12,56</t>
+          <t>-12,95; -4,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 5,85</t>
+          <t>-8,45; -2,91</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-78,28%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-79,06%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>-78,64%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 360,55</t>
+          <t>-100,0; 7,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-67,86; 166,11</t>
+          <t>-93,59; -46,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 99,67</t>
+          <t>-92,36; -54,13</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>18,13</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-16,71</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>-11,53</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,66; 45,12</t>
+          <t>-11,05; 3,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 11,36</t>
+          <t>-22,39; -10,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 19,18</t>
+          <t>-16,04; -6,86</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>156,02%</t>
+          <t>-40,21%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-16,63%</t>
+          <t>-79,76%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>-68,07%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,16; 428,03</t>
+          <t>-76,72; 50,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-62,96; 60,81</t>
+          <t>-90,91; -57,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 118,57</t>
+          <t>-82,24; -42,67</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-7,68</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 8,87</t>
+          <t>-7,48; -3,6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,97</t>
+          <t>-11,61; -7,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,26</t>
+          <t>-8,95; -6,19</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>-74,68%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>-78,47%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>-77,06%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 127,15</t>
+          <t>-85,48; -51,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 43,62</t>
+          <t>-85,39; -69,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 55,71</t>
+          <t>-82,76; -67,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P17A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P17A_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-8,14</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.5268850548630688</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.066166100931435</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.264432833040978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,78; -3,01</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,48; -2,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; -4,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.936696851993485</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.252804122550221</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.372468308762469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-83,92%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-70,17%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-76,7%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.93991758554158</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.01305720235149</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.52047148724455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -28,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-89,16; -15,71</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-91,52; -48,89</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.05376100953314901</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.4398201094643828</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.3074479016954287</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,58</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,95</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4884148377420531</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4979484393289829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,34; -3,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,66; -2,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,38; -3,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>3.657827892039748</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>2.683257070775994</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.68228865146268</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-93,07%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-74,5%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-83,69%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-5.018831244737985</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.289775024731068</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.874171236378349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -38,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-94,62; -28,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-95,25; -58,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.59492889976244</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.37584880167993</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.370537839710415</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,75</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-6,98</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.827942548880035</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.31046881969517</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.458367704288554</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,25; -1,82</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,2; -3,67</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,48; -3,74</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.7099274923061256</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.2865056549843737</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.2494971369181712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-75,64%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-77,55%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-76,75%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.6434669909384847</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.7632655005473965</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-94,32; -26,45</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-91,45; -49,53</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-89,19; -56,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.253743793205226</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2.6535497471947</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7661001824067583</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-6,47</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-9,88</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-8,26</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.3626372807919276</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.461836592846284</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.8012443553648705</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-9,8; -3,83</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-14,34; -6,3</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-11,03; -6,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.389569574112278</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.927249549616081</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.5028661288806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-94,45%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-83,75%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-87,59%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.30094754828777</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.27126173042799</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.108038403430757</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -69,94</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-94,32; -60,82</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-94,88; -74,39</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.05771425310495695</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.1623970946520694</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.1045919973807747</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-3,27</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-8,03</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-5,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.769319448785952</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.5242212809770246</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4103552265440215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; -0,92</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-12,95; -4,24</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; -2,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>2.142316817789473</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.48667707893392</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.066497283246971</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-78,28%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-79,06%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-78,64%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-5.059733872797787</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.996653368405923</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-3.596879555972584</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 7,06</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-93,59; -46,85</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-92,36; -54,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.604927070928538</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-9.172238844133894</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-7.848006873890162</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-4,67</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-16,71</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-11,53</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.792596535435781</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.999157207747317</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.681559282518441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 3,33</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-22,39; -10,49</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-16,04; -6,86</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.7390958084178768</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1692491986289553</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.3812667452658139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-40,21%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-79,76%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-68,07%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.7082404878084992</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.7500829147838922</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-76,72; 50,99</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-90,91; -57,51</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-82,24; -42,67</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.09620621826711</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.8097174209280144</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.3615039830921565</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-9,63</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-7,68</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-0.1326981903604731</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-0.2058371114877902</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.2045549351559026</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; -3,6</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-11,61; -7,8</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; -6,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-4.307168917146824</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-8.310916736848696</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-5.231317058394586</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-74,68%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-78,47%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-77,06%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>8.976094753708921</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>11.14221033112716</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>5.837405086118499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-85,48; -51,78</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-85,39; -69,98</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-82,76; -67,98</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.03180662297432801</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.02026013123841138</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.02865774485732892</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.7129189391662611</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.6623512471468535</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>5.163468457193093</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>1.363376965700694</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.9687121503494837</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>18.7749220672124</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-3.553743500616183</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>6.083609261437026</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>3.342232512630639</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-13.84280392928258</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-3.867723143579983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>45.27368079493401</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>11.50927987948673</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>20.12037492106573</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>1.615802999065928</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.1696680910886604</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.3591013972641557</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>0.1554915511519416</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.6282282775289304</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2228350492643432</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>5.432320213252442</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.5833049935154283</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>1.35770459135762</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1.470841809213153</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.3420981341360443</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.8762043583506505</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-2.527817028296884</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-3.555804583139727</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-1.891505959141944</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>9.071587635819863</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>5.175694318358618</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>4.942246668258603</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.1944717949233556</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.02787156332854039</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.08787649070766203</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.3236713905270266</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.2824610472528405</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1824978363649076</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>1.309290405918174</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.4422178485391084</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.5314535975026015</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
